--- a/Documentacion/PlanificacionProyecto3.xlsx
+++ b/Documentacion/PlanificacionProyecto3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\XAMP\DAW\Proyectos\PROYECTO3\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\XAMP\DAW\Proyectos\PROYECTO3\proyecto3_myContacts_silicio\PROYECTO3\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -726,8 +726,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FFFF33CC"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FF9AFAB1"/>
       <color rgb="FFFFCC66"/>
       <color rgb="FF99FF66"/>
@@ -1082,7 +1082,7 @@
   <dimension ref="A3:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,8 +1162,8 @@
       <c r="D5" s="6">
         <v>0.3</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>39</v>
+      <c r="E5" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>44</v>
@@ -1240,8 +1240,8 @@
       <c r="D8" s="6">
         <v>0.3</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>39</v>
+      <c r="E8" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>47</v>
@@ -1318,8 +1318,8 @@
       <c r="D11" s="6">
         <v>0.3</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>39</v>
+      <c r="E11" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>47</v>
@@ -1344,8 +1344,8 @@
       <c r="D12" s="6">
         <v>0.3</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>36</v>
+      <c r="E12" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>69</v>
@@ -1370,8 +1370,8 @@
       <c r="D13" s="6">
         <v>0.3</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>36</v>
+      <c r="E13" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>69</v>
@@ -1396,8 +1396,8 @@
       <c r="D14" s="6">
         <v>0.3</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>36</v>
+      <c r="E14" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>69</v>
@@ -1422,8 +1422,8 @@
       <c r="D15" s="6">
         <v>0.3</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>36</v>
+      <c r="E15" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>69</v>
@@ -1448,8 +1448,8 @@
       <c r="D16" s="6">
         <v>0.3</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>36</v>
+      <c r="E16" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>37</v>
@@ -1474,8 +1474,8 @@
       <c r="D17" s="6">
         <v>0.3</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>36</v>
+      <c r="E17" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>37</v>
@@ -1500,8 +1500,8 @@
       <c r="D18" s="6">
         <v>0.3</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>36</v>
+      <c r="E18" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>37</v>
@@ -1526,8 +1526,8 @@
       <c r="D19" s="6">
         <v>0.3</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>36</v>
+      <c r="E19" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>43</v>
